--- a/biology/Histoire de la zoologie et de la botanique/Axel_Kwet/Axel_Kwet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Axel_Kwet/Axel_Kwet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Axel Kwet est un herpétologiste allemand né le 5 février 1965 à Esslingen am Neckar.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a obtenu son doctorat en biologie à l'Université de Tübingen, en Allemagne, en 2001. Il est un herpétologiste professionnel avec un accent sur la taxonomie et l'écologie des amphibiens et de reptiles néotropicaux, surtout dans le sud du Brésil et l'Uruguay. Depuis 2000, il est employé au musée d'histoire naturelle de Stuttgart.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'auteur de la découverte de plusieurs espèces d'amphibiens :
 Elachistocleis erythrogaster Kwet &amp; Di-Bernardo, 1998
